--- a/docs/subnetting.xlsx
+++ b/docs/subnetting.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF982E-F871-45C5-A1B7-D34DF2FAE8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E6066-0ABC-4912-808A-2924002FF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{161EC3BA-56C6-46F0-A9C7-BB86AAAD3C67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{161EC3BA-56C6-46F0-A9C7-BB86AAAD3C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Classic" sheetId="2" r:id="rId2"/>
+    <sheet name="VLSM" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">VLSM!$A$5:$B$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="237">
   <si>
     <t>ip</t>
   </si>
@@ -1971,6 +1975,243 @@
   </si>
   <si>
     <t>IP Address</t>
+  </si>
+  <si>
+    <t>vlsm</t>
+  </si>
+  <si>
+    <t>2^h-2&gt;=hosts</t>
+  </si>
+  <si>
+    <t>dto</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>32 - h</t>
+  </si>
+  <si>
+    <t>next-hop</t>
+  </si>
+  <si>
+    <t>2^h</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>C = 100</t>
+  </si>
+  <si>
+    <t>B = 60</t>
+  </si>
+  <si>
+    <t>D = 50</t>
+  </si>
+  <si>
+    <t>A = 30</t>
+  </si>
+  <si>
+    <t>10.0.0.128</t>
+  </si>
+  <si>
+    <t>10.0.0.127</t>
+  </si>
+  <si>
+    <t>10.0.0.192</t>
+  </si>
+  <si>
+    <t>10.0.0.191</t>
+  </si>
+  <si>
+    <t>10.0.1.0</t>
+  </si>
+  <si>
+    <t>10.0.0.255</t>
+  </si>
+  <si>
+    <t>10.0.0.31</t>
+  </si>
+  <si>
+    <t>10.0.1.32</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10.0.0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip </t>
+  </si>
+  <si>
+    <r>
+      <t>0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>10.0.0.224</t>
+  </si>
+  <si>
+    <t>10.0.1.31</t>
+  </si>
+  <si>
+    <t>10.0.0.26</t>
+  </si>
+  <si>
+    <t>00011010</t>
+  </si>
+  <si>
+    <t>00011000</t>
+  </si>
+  <si>
+    <t>11111100</t>
+  </si>
+  <si>
+    <t>10.0.0.24</t>
+  </si>
+  <si>
+    <t>25 pc
+2 switches</t>
+  </si>
+  <si>
+    <t>40 pc,  10 impresoras, 3 switches, 5 notebooks</t>
+  </si>
+  <si>
+    <t>3 servidores 
+2 impresoras, 1 switch</t>
+  </si>
+  <si>
+    <t>192.168.0.64</t>
+  </si>
+  <si>
+    <t>192.168.0.63</t>
+  </si>
+  <si>
+    <t>192.168.0.95</t>
+  </si>
+  <si>
+    <t>192.168.0.96</t>
+  </si>
+  <si>
+    <t>192.168.0.128</t>
+  </si>
+  <si>
+    <t>192.168.0.127</t>
+  </si>
+  <si>
+    <t>10 pc, 2 impresoras
+4 notebooks, 1 switch</t>
+  </si>
+  <si>
+    <t>192.168.0.143</t>
+  </si>
+  <si>
+    <t>192.168.0.144</t>
+  </si>
+  <si>
+    <t>ROUTER</t>
+  </si>
+  <si>
+    <t>192.168.0.147</t>
   </si>
 </sst>
 </file>
@@ -1979,16 +2220,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2106,9 +2340,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2118,51 +2352,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -2183,79 +2454,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2395,7 +2593,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2404,11 +2601,29 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2434,15 +2649,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2461,6 +2704,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2486,7 +2760,7 @@
     <tableColumn id="5" xr3:uid="{F01FF698-5F5D-4EE3-9A90-0B366552323D}" name="salto">
       <calculatedColumnFormula>256/C6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{492E002E-C2BD-4C9B-8049-40228C92B5B5}" name="hosts" dataDxfId="17" dataCellStyle="Millares">
+    <tableColumn id="6" xr3:uid="{492E002E-C2BD-4C9B-8049-40228C92B5B5}" name="hosts" dataDxfId="9" dataCellStyle="Millares">
       <calculatedColumnFormula>2^22-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2498,13 +2772,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E07761EC-52B2-411A-AC28-E8AD190CAEF3}" name="Tabla3" displayName="Tabla3" ref="A8:G12" totalsRowShown="0">
   <autoFilter ref="A8:G12" xr:uid="{E07761EC-52B2-411A-AC28-E8AD190CAEF3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{24717936-0CC4-4AF4-81A3-62A007DD1C1C}" name="bin" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{24717936-0CC4-4AF4-81A3-62A007DD1C1C}" name="bin" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{FDEE00AB-9305-4C33-8552-38ED2B25D3B4}" name="red"/>
     <tableColumn id="3" xr3:uid="{D9F81EB9-8244-4E8D-B4B0-EDCADB915549}" name="ip ini"/>
-    <tableColumn id="4" xr3:uid="{7608D83C-285B-4795-88AE-1AE4521C66E1}" name="ip fin" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{87C401D8-F650-4E95-94B7-639E2F702ADF}" name="broadcast" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{7608D83C-285B-4795-88AE-1AE4521C66E1}" name="ip fin" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{87C401D8-F650-4E95-94B7-639E2F702ADF}" name="broadcast" dataDxfId="24"/>
     <tableColumn id="6" xr3:uid="{E5E11C39-E186-4D18-8647-D2835F2954A5}" name="mask"/>
-    <tableColumn id="7" xr3:uid="{C1025D02-14DE-4665-9336-94422467A997}" name="cidr" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{C1025D02-14DE-4665-9336-94422467A997}" name="cidr" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2519,7 +2793,7 @@
     <tableColumn id="3" xr3:uid="{C31AA30D-92BC-4ABC-BC5D-E2C4EB176994}" name="posible"/>
     <tableColumn id="4" xr3:uid="{FB6B7DFA-3D65-4904-9D90-33E1BA23206C}" name="bits"/>
     <tableColumn id="5" xr3:uid="{D9201DB0-4029-4F46-8185-DFF48451CB16}" name="salto"/>
-    <tableColumn id="6" xr3:uid="{86A9097C-4DD3-4211-987A-9AE0FF8A9008}" name="hosts" dataDxfId="13" dataCellStyle="Millares">
+    <tableColumn id="6" xr3:uid="{86A9097C-4DD3-4211-987A-9AE0FF8A9008}" name="hosts" dataDxfId="22" dataCellStyle="Millares">
       <calculatedColumnFormula>2^12-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2536,7 +2810,7 @@
     <tableColumn id="3" xr3:uid="{E20761A8-83EB-4CF5-A47B-9B17E46AC3A0}" name="posible"/>
     <tableColumn id="4" xr3:uid="{580FAE9A-9E51-43C8-805A-9AE957B3620B}" name="bits"/>
     <tableColumn id="5" xr3:uid="{5A1B5BBE-8190-4396-87C1-34FCE5053DE4}" name="salto"/>
-    <tableColumn id="6" xr3:uid="{28B7653E-A628-4712-AD2C-4C954DE37868}" name="hosts" dataDxfId="2" dataCellStyle="Millares">
+    <tableColumn id="6" xr3:uid="{28B7653E-A628-4712-AD2C-4C954DE37868}" name="hosts" dataDxfId="21" dataCellStyle="Millares">
       <calculatedColumnFormula>2^5-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2545,16 +2819,48 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B701CC03-2ED4-49F1-80F4-E4B6C4F2F9B5}" name="Tabla6" displayName="Tabla6" ref="A17:G33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B701CC03-2ED4-49F1-80F4-E4B6C4F2F9B5}" name="Tabla6" displayName="Tabla6" ref="A17:G33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A17:G33" xr:uid="{B701CC03-2ED4-49F1-80F4-E4B6C4F2F9B5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B4D13356-1665-4148-BA59-EFCDF905EA0A}" name="bin" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{62E20E5C-EA4D-47C7-8339-24867B08F83E}" name="red" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6554A3C4-BD4D-4388-9CE9-FA0C047F8E97}" name="ip ini" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0B83E2FB-C20A-4B00-8878-768B8ED124AB}" name="ip fin" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{EDE68592-2A79-4493-B0A6-E88CAC931362}" name="broadcast" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E364DCBB-8712-4335-B2B6-2E576EABC16D}" name="mask" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5DE67145-7699-48CD-893C-008AA2743E38}" name="cidr" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B4D13356-1665-4148-BA59-EFCDF905EA0A}" name="bin" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{62E20E5C-EA4D-47C7-8339-24867B08F83E}" name="red" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{6554A3C4-BD4D-4388-9CE9-FA0C047F8E97}" name="ip ini" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0B83E2FB-C20A-4B00-8878-768B8ED124AB}" name="ip fin" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{EDE68592-2A79-4493-B0A6-E88CAC931362}" name="broadcast" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E364DCBB-8712-4335-B2B6-2E576EABC16D}" name="mask" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{5DE67145-7699-48CD-893C-008AA2743E38}" name="cidr" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7820C955-2052-4DD8-B315-4766832FD47C}" name="Tabla2" displayName="Tabla2" ref="D5:J10" totalsRowShown="0">
+  <autoFilter ref="D5:J10" xr:uid="{7820C955-2052-4DD8-B315-4766832FD47C}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{6F0718EF-1ADB-4E2A-A1FE-FCB4861D2600}" name="dto"/>
+    <tableColumn id="2" xr3:uid="{5E1E14A9-A51D-4566-8C59-A45F284A7790}" name="net"/>
+    <tableColumn id="3" xr3:uid="{E7421D51-7401-449B-A8B5-71FAA6EBA679}" name="bits"/>
+    <tableColumn id="4" xr3:uid="{5B40B483-D3E5-4A61-BF1B-26000919DE7C}" name="cidr"/>
+    <tableColumn id="5" xr3:uid="{E2962715-559C-47FB-B782-C645BFB47A85}" name="mask" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{9AD49F7B-B396-425D-B23A-7417038B728D}" name="hosts"/>
+    <tableColumn id="7" xr3:uid="{DE96A52B-0EB1-4A9F-83BF-0CF1604E3789}" name="broadcast"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{600F3518-7E06-4C65-9EA2-7EAC7D50C714}" name="Tabla29" displayName="Tabla29" ref="D13:J19" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="D13:J19" xr:uid="{600F3518-7E06-4C65-9EA2-7EAC7D50C714}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{383CEE3F-7826-4101-ADDC-1AA6088889AD}" name="dto" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{96E98BB3-4AD5-47FE-959E-A62DF8AED0D5}" name="net" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{57F6E8FE-6CA7-43A2-8636-97872821EB16}" name="bits" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D54BD92E-0CB1-41BB-919E-B945D3D09A90}" name="cidr" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{09EC5A5B-7F7D-4B88-8E9A-D1501968D3E6}" name="mask" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{560720C7-56C1-4C2A-BC75-3E3041D383A9}" name="hosts" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A8AD0A5C-1451-4C50-AB4B-16C243830349}" name="broadcast" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2859,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E63A0D6-6FEE-4EB6-BBF7-C195C4E9E08E}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2869,18 +3175,18 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3002,18 +3308,18 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3089,16 +3395,16 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3118,16 +3424,16 @@
       <c r="E11" s="4">
         <v>255</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3135,18 +3441,18 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3164,16 +3470,16 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3193,16 +3499,16 @@
       <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3222,16 +3528,16 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3251,16 +3557,16 @@
       <c r="E17" s="4">
         <v>255</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3279,11 +3585,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49499F0B-5626-4FDA-A9F1-C8FF3503E537}">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,138 +3597,144 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="8">
+      <c r="K2" s="24">
         <v>10255255255</v>
       </c>
-      <c r="M2">
+      <c r="L2" s="23">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O2">
+      <c r="N2" s="23">
         <v>1</v>
       </c>
-      <c r="P2" s="10">
+      <c r="O2" s="25">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="23">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O3">
+      <c r="N3" s="23">
         <v>16</v>
       </c>
-      <c r="P3" s="10">
+      <c r="O3" s="25">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="8">
+      <c r="K4" s="24">
         <v>192168255255</v>
       </c>
-      <c r="M4">
+      <c r="L4" s="23">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="O4">
+      <c r="N4" s="23">
         <v>256</v>
       </c>
-      <c r="P4" s="10">
+      <c r="O4" s="25">
         <f>2^8-2</f>
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -3442,7 +3754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -3459,12 +3771,13 @@
         <f>256/C6</f>
         <v>64</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <f>2^22-2</f>
         <v>4194302</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G6" s="26"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3487,7 +3800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -3506,11 +3819,11 @@
       <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -3520,7 +3833,7 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>10127255254</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3529,11 +3842,11 @@
       <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,7 +3856,7 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>10191255254</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3552,11 +3865,11 @@
       <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -3566,7 +3879,7 @@
       <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>10255255254</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3575,11 +3888,11 @@
       <c r="F12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3599,7 +3912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3615,399 +3928,399 @@
       <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <f>2^12-2</f>
         <v>4094</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="15">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="15">
         <v>20</v>
       </c>
     </row>
@@ -4047,52 +4360,52 @@
       <c r="E36">
         <v>32</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <f>2^5-2</f>
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="27">
         <v>255255255224</v>
       </c>
       <c r="G39" s="15">
@@ -4100,22 +4413,22 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="27">
         <v>255255255224</v>
       </c>
       <c r="G40" s="15">
@@ -4123,22 +4436,22 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="27">
         <v>255255255224</v>
       </c>
       <c r="G41" s="15">
@@ -4146,22 +4459,22 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="27">
         <v>255255255224</v>
       </c>
       <c r="G42" s="15">
@@ -4169,22 +4482,22 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="27">
         <v>255255255224</v>
       </c>
       <c r="G43" s="15">
@@ -4192,22 +4505,22 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="27">
         <v>255255255224</v>
       </c>
       <c r="G44" s="15">
@@ -4215,22 +4528,22 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="27">
         <v>255255255224</v>
       </c>
       <c r="G45" s="15">
@@ -4238,22 +4551,22 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="27">
         <v>255255255224</v>
       </c>
       <c r="G46" s="15">
@@ -4261,7 +4574,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="11" t="s">
         <v>177</v>
       </c>
       <c r="B49">
@@ -4269,7 +4582,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4280,16 +4593,16 @@
       <c r="B52">
         <v>20</v>
       </c>
-      <c r="C52" s="21"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="5">
@@ -4300,4 +4613,608 @@
     <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBC4265-7131-43B4-8592-72164FAB352C}">
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>213</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" s="6">
+        <v>255255255128</v>
+      </c>
+      <c r="I6">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+      <c r="L6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+      <c r="P6" s="6">
+        <v>255255255224</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>209</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>255255255252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6">
+        <v>255255255192</v>
+      </c>
+      <c r="I7">
+        <v>62</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7" s="6">
+        <v>255255255192</v>
+      </c>
+      <c r="Q7">
+        <v>62</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6">
+        <v>255255255192</v>
+      </c>
+      <c r="I8">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8" s="6">
+        <v>255255255128</v>
+      </c>
+      <c r="Q8">
+        <v>126</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6">
+        <v>255255255224</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>26</v>
+      </c>
+      <c r="P9" s="6">
+        <v>255255255192</v>
+      </c>
+      <c r="Q9">
+        <v>62</v>
+      </c>
+      <c r="R9" t="s">
+        <v>217</v>
+      </c>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I10" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" t="s">
+        <v>210</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="23">
+        <v>6</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="23">
+        <v>6</v>
+      </c>
+      <c r="G14" s="23">
+        <v>26</v>
+      </c>
+      <c r="H14" s="24">
+        <v>255255255192</v>
+      </c>
+      <c r="I14" s="23">
+        <v>62</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="23">
+        <v>16</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" s="23">
+        <v>5</v>
+      </c>
+      <c r="G15" s="23">
+        <v>27</v>
+      </c>
+      <c r="H15" s="24">
+        <v>255255255224</v>
+      </c>
+      <c r="I15" s="23">
+        <v>30</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="23">
+        <v>27</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5</v>
+      </c>
+      <c r="G16" s="23">
+        <v>27</v>
+      </c>
+      <c r="H16" s="24">
+        <v>255255255224</v>
+      </c>
+      <c r="I16" s="23">
+        <v>30</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="23">
+        <v>58</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="23">
+        <v>4</v>
+      </c>
+      <c r="G17" s="23">
+        <v>28</v>
+      </c>
+      <c r="H17" s="24">
+        <v>255255255240</v>
+      </c>
+      <c r="I17" s="23">
+        <v>14</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="23">
+        <v>2</v>
+      </c>
+      <c r="G18" s="23">
+        <v>30</v>
+      </c>
+      <c r="H18" s="24">
+        <v>255255255252</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:B9" xr:uid="{BFBC4265-7131-43B4-8592-72164FAB352C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B9">
+      <sortCondition descending="1" ref="B5:B9"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L6:R9">
+    <sortCondition ref="L6:L9"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/docs/subnetting.xlsx
+++ b/docs/subnetting.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-lj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AE8B25-FF75-452F-AC4D-33584A5C22D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429288A1-8459-4E8E-BEEA-FFCCDB6C0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Classic" sheetId="2" r:id="rId2"/>
+    <sheet name="VLSM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="236">
   <si>
     <t>10.32.64.128</t>
   </si>
@@ -1261,20 +1262,190 @@
   </si>
   <si>
     <t>192.168.0.226</t>
+  </si>
+  <si>
+    <t>VLSM</t>
+  </si>
+  <si>
+    <t>2^h-2&gt;= hosts</t>
+  </si>
+  <si>
+    <t>32 - h</t>
+  </si>
+  <si>
+    <t>2^h</t>
+  </si>
+  <si>
+    <t>deptos</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>10.0.0.128</t>
+  </si>
+  <si>
+    <t>10.0.0.127</t>
+  </si>
+  <si>
+    <t>10.0.1.0</t>
+  </si>
+  <si>
+    <t>10.0.1.63</t>
+  </si>
+  <si>
+    <t>10.0.1.64</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>impar</t>
+  </si>
+  <si>
+    <t>10.0.1.95</t>
+  </si>
+  <si>
+    <t>10.0.1.96</t>
+  </si>
+  <si>
+    <t>10.0.1.127</t>
+  </si>
+  <si>
+    <t>10.0.1.128</t>
+  </si>
+  <si>
+    <t>10.0.0.192</t>
+  </si>
+  <si>
+    <t>10.0.0.191</t>
+  </si>
+  <si>
+    <t>10.0.0.224</t>
+  </si>
+  <si>
+    <t>10.0.0.223</t>
+  </si>
+  <si>
+    <t>10.0.1.32</t>
+  </si>
+  <si>
+    <t>10.0.1.31</t>
+  </si>
+  <si>
+    <t>/26</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>11100000</t>
+  </si>
+  <si>
+    <t>11000000</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00011111</t>
+  </si>
+  <si>
+    <t>10.0.0.0/24</t>
+  </si>
+  <si>
+    <t>10.0.0.0/25</t>
+  </si>
+  <si>
+    <t>10.0.0.0/26</t>
+  </si>
+  <si>
+    <t>10.0.0.0/27</t>
+  </si>
+  <si>
+    <t>10.0.0.0/28</t>
+  </si>
+  <si>
+    <t>10.0.0.0/29</t>
+  </si>
+  <si>
+    <t>10.0.0.0/30</t>
+  </si>
+  <si>
+    <t>10.0.0.63</t>
+  </si>
+  <si>
+    <t>10.0.0.32</t>
+  </si>
+  <si>
+    <t>10.0.0.15</t>
+  </si>
+  <si>
+    <t>10.0.0.31</t>
+  </si>
+  <si>
+    <t>10.0.0.7</t>
+  </si>
+  <si>
+    <t>10.0.0.3</t>
+  </si>
+  <si>
+    <t>paquete</t>
+  </si>
+  <si>
+    <t>10.0.0.2</t>
+  </si>
+  <si>
+    <t>0.0.0.0/0</t>
+  </si>
+  <si>
+    <t>isp</t>
+  </si>
+  <si>
+    <t>10.0.0.64</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>10.0.0.</t>
+  </si>
+  <si>
+    <t>10.0.1.54</t>
+  </si>
+  <si>
+    <t>10.0.1.48</t>
+  </si>
+  <si>
+    <t>10.0.1.52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1387,9 +1558,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1397,65 +1568,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1522,17 +1668,49 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color theme="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1557,8 +1735,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75F0F029-5BEA-4EE9-9440-2D776FD57478}" name="Tabla1" displayName="Tabla1" ref="A8:F16" totalsRowShown="0">
-  <autoFilter ref="A8:F16" xr:uid="{75F0F029-5BEA-4EE9-9440-2D776FD57478}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75F0F029-5BEA-4EE9-9440-2D776FD57478}" name="Tabla1" displayName="Tabla1" ref="A8:F17" totalsRowShown="0">
+  <autoFilter ref="A8:F17" xr:uid="{75F0F029-5BEA-4EE9-9440-2D776FD57478}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{699353B4-0A8A-4B10-A7C9-0835982F30F4}" name="subnet"/>
     <tableColumn id="2" xr3:uid="{5E1FB931-EF0E-46A2-99BB-4D7ADD944822}" name="ip ini"/>
@@ -1572,15 +1750,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9273F39D-3121-46C4-ACF9-588E1BE06069}" name="Tabla2" displayName="Tabla2" ref="A22:F26" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A22:F26" xr:uid="{9273F39D-3121-46C4-ACF9-588E1BE06069}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9273F39D-3121-46C4-ACF9-588E1BE06069}" name="Tabla2" displayName="Tabla2" ref="A23:F27" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="A23:F27" xr:uid="{9273F39D-3121-46C4-ACF9-588E1BE06069}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{31C51AA4-3AB4-4C65-A6B2-0FE72B4F3E32}" name="subnet" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B353AFAA-9B95-421E-B512-8CCDA8FCEBAD}" name="ip ini" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{83BD0616-2A66-4627-A53B-2ABC0F0AE7B8}" name="ip fin" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{4526FAAC-D4D9-42C3-A573-4FAA73A64CF7}" name="broadcast" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{CDFEBA47-4ACF-4B98-8294-61E0306E2D1A}" name="mask" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0C0F6797-689A-4213-B01F-80053837720B}" name="binario" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{31C51AA4-3AB4-4C65-A6B2-0FE72B4F3E32}" name="subnet" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B353AFAA-9B95-421E-B512-8CCDA8FCEBAD}" name="ip ini" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{83BD0616-2A66-4627-A53B-2ABC0F0AE7B8}" name="ip fin" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4526FAAC-D4D9-42C3-A573-4FAA73A64CF7}" name="broadcast" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CDFEBA47-4ACF-4B98-8294-61E0306E2D1A}" name="mask" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0C0F6797-689A-4213-B01F-80053837720B}" name="binario" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1883,15 +2061,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A06CDD5-247E-4F2E-B9BE-EFE905346005}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2034,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2042,18 +2220,273 @@
         <v>10255255255</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" t="s">
+        <v>232</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F6178-F5F0-4992-8711-3DEA79832F7B}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,56 +2541,56 @@
       <c r="G2" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="23" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="22">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="22">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="22">
         <v>21</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="22">
         <f>2^21-2</f>
         <v>2097150</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="23">
         <v>32</v>
       </c>
     </row>
@@ -2345,564 +2778,578 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="22">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="22">
         <v>18</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="22">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="E21" s="22">
         <f>2^14-2</f>
         <v>16382</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F21" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E25" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E26" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B30" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D30" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E30" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F30" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B31" s="22">
         <v>4</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C31" s="22">
         <v>28</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="22">
         <v>4</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="22">
         <f>2^4-2</f>
         <v>14</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F31" s="25">
         <f>256/16</f>
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F33" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F34" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>103</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>150</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E35" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F36" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>151</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>152</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E37" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F37" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>112</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>166</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>154</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E39" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E40" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F40" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>114</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>168</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>156</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E41" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F42" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>116</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>170</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>158</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E43" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F43" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>118</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>172</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>145</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E45" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E46" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>120</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>174</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" t="s">
         <v>162</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E47" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F47" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="20">
         <v>255255255240</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F48" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>122</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>176</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>164</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="2">
         <v>255255255240</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F49" s="12" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
@@ -2910,4 +3357,343 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06137603-6B51-473F-A28B-92C3A83F8653}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="22">
+        <v>100</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27">
+        <v>255255255128</v>
+      </c>
+      <c r="E5" s="22">
+        <v>25</v>
+      </c>
+      <c r="F5" s="22">
+        <v>126</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" s="22">
+        <v>100</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="27">
+        <v>255255255128</v>
+      </c>
+      <c r="M5" s="22">
+        <v>25</v>
+      </c>
+      <c r="N5" s="22">
+        <v>126</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="22">
+        <v>80</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="27">
+        <v>255255255128</v>
+      </c>
+      <c r="E6" s="22">
+        <v>25</v>
+      </c>
+      <c r="F6" s="22">
+        <v>126</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="22">
+        <v>60</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="27">
+        <v>255255255192</v>
+      </c>
+      <c r="M6" s="22">
+        <v>26</v>
+      </c>
+      <c r="N6" s="22">
+        <v>62</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="22">
+        <v>60</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="27">
+        <v>255255255192</v>
+      </c>
+      <c r="E7" s="22">
+        <v>26</v>
+      </c>
+      <c r="F7" s="22">
+        <v>62</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J7" s="22">
+        <v>20</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7" s="27">
+        <v>255255255224</v>
+      </c>
+      <c r="M7" s="22">
+        <v>27</v>
+      </c>
+      <c r="N7" s="22">
+        <v>30</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="22">
+        <v>30</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="27">
+        <v>255255255224</v>
+      </c>
+      <c r="E8" s="22">
+        <v>27</v>
+      </c>
+      <c r="F8" s="22">
+        <v>30</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="22">
+        <v>80</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="27">
+        <v>255255255192</v>
+      </c>
+      <c r="M8" s="22">
+        <v>26</v>
+      </c>
+      <c r="N8" s="22">
+        <v>62</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="22">
+        <v>20</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="27">
+        <v>255255255224</v>
+      </c>
+      <c r="E9" s="22">
+        <v>27</v>
+      </c>
+      <c r="F9" s="22">
+        <v>30</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="22">
+        <v>30</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="L9" s="27">
+        <v>255255255224</v>
+      </c>
+      <c r="M9" s="22">
+        <v>27</v>
+      </c>
+      <c r="N9" s="22">
+        <v>30</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B9">
+    <sortCondition descending="1" ref="B5:B9"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/subnetting.xlsx
+++ b/docs/subnetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-lj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429288A1-8459-4E8E-BEEA-FFCCDB6C0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BB2F5-399B-4139-BC9A-220FB88B7540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2063,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A06CDD5-247E-4F2E-B9BE-EFE905346005}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06137603-6B51-473F-A28B-92C3A83F8653}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:O10"/>
     </sheetView>
   </sheetViews>

--- a/docs/subnetting.xlsx
+++ b/docs/subnetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-mj10\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E6066-0ABC-4912-808A-2924002FF2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A39E2B-149F-4822-9735-008CF30B97CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{161EC3BA-56C6-46F0-A9C7-BB86AAAD3C67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{161EC3BA-56C6-46F0-A9C7-BB86AAAD3C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="258">
   <si>
     <t>ip</t>
   </si>
@@ -2212,6 +2212,69 @@
   </si>
   <si>
     <t>192.168.0.147</t>
+  </si>
+  <si>
+    <t>10.0.1.2</t>
+  </si>
+  <si>
+    <t>10.0.1.3</t>
+  </si>
+  <si>
+    <t>10.0.1.54</t>
+  </si>
+  <si>
+    <t>10.0.1.48</t>
+  </si>
+  <si>
+    <t>10.0.1.52</t>
+  </si>
+  <si>
+    <t>router net</t>
+  </si>
+  <si>
+    <t>bc</t>
+  </si>
+  <si>
+    <t>10.0.1.255</t>
+  </si>
+  <si>
+    <t>10.0.1.127</t>
+  </si>
+  <si>
+    <t>10.0.1.63</t>
+  </si>
+  <si>
+    <t>10.0.1.15</t>
+  </si>
+  <si>
+    <t>10.0.1.7</t>
+  </si>
+  <si>
+    <t>ip dest</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>192.168.0.255</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch </t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>Router</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2285,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2254,6 +2317,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2342,7 +2412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2381,12 +2451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2403,6 +2467,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -2416,10 +2492,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2454,24 +2530,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2736,6 +2794,24 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2760,7 +2836,7 @@
     <tableColumn id="5" xr3:uid="{F01FF698-5F5D-4EE3-9A90-0B366552323D}" name="salto">
       <calculatedColumnFormula>256/C6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{492E002E-C2BD-4C9B-8049-40228C92B5B5}" name="hosts" dataDxfId="9" dataCellStyle="Millares">
+    <tableColumn id="6" xr3:uid="{492E002E-C2BD-4C9B-8049-40228C92B5B5}" name="hosts" dataDxfId="26" dataCellStyle="Millares">
       <calculatedColumnFormula>2^22-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2772,13 +2848,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E07761EC-52B2-411A-AC28-E8AD190CAEF3}" name="Tabla3" displayName="Tabla3" ref="A8:G12" totalsRowShown="0">
   <autoFilter ref="A8:G12" xr:uid="{E07761EC-52B2-411A-AC28-E8AD190CAEF3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{24717936-0CC4-4AF4-81A3-62A007DD1C1C}" name="bin" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{24717936-0CC4-4AF4-81A3-62A007DD1C1C}" name="bin" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{FDEE00AB-9305-4C33-8552-38ED2B25D3B4}" name="red"/>
     <tableColumn id="3" xr3:uid="{D9F81EB9-8244-4E8D-B4B0-EDCADB915549}" name="ip ini"/>
-    <tableColumn id="4" xr3:uid="{7608D83C-285B-4795-88AE-1AE4521C66E1}" name="ip fin" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{87C401D8-F650-4E95-94B7-639E2F702ADF}" name="broadcast" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{7608D83C-285B-4795-88AE-1AE4521C66E1}" name="ip fin" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{87C401D8-F650-4E95-94B7-639E2F702ADF}" name="broadcast" dataDxfId="23"/>
     <tableColumn id="6" xr3:uid="{E5E11C39-E186-4D18-8647-D2835F2954A5}" name="mask"/>
-    <tableColumn id="7" xr3:uid="{C1025D02-14DE-4665-9336-94422467A997}" name="cidr" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{C1025D02-14DE-4665-9336-94422467A997}" name="cidr" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2793,7 +2869,7 @@
     <tableColumn id="3" xr3:uid="{C31AA30D-92BC-4ABC-BC5D-E2C4EB176994}" name="posible"/>
     <tableColumn id="4" xr3:uid="{FB6B7DFA-3D65-4904-9D90-33E1BA23206C}" name="bits"/>
     <tableColumn id="5" xr3:uid="{D9201DB0-4029-4F46-8185-DFF48451CB16}" name="salto"/>
-    <tableColumn id="6" xr3:uid="{86A9097C-4DD3-4211-987A-9AE0FF8A9008}" name="hosts" dataDxfId="22" dataCellStyle="Millares">
+    <tableColumn id="6" xr3:uid="{86A9097C-4DD3-4211-987A-9AE0FF8A9008}" name="hosts" dataDxfId="21" dataCellStyle="Millares">
       <calculatedColumnFormula>2^12-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2810,7 +2886,7 @@
     <tableColumn id="3" xr3:uid="{E20761A8-83EB-4CF5-A47B-9B17E46AC3A0}" name="posible"/>
     <tableColumn id="4" xr3:uid="{580FAE9A-9E51-43C8-805A-9AE957B3620B}" name="bits"/>
     <tableColumn id="5" xr3:uid="{5A1B5BBE-8190-4396-87C1-34FCE5053DE4}" name="salto"/>
-    <tableColumn id="6" xr3:uid="{28B7653E-A628-4712-AD2C-4C954DE37868}" name="hosts" dataDxfId="21" dataCellStyle="Millares">
+    <tableColumn id="6" xr3:uid="{28B7653E-A628-4712-AD2C-4C954DE37868}" name="hosts" dataDxfId="20" dataCellStyle="Millares">
       <calculatedColumnFormula>2^5-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2819,16 +2895,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B701CC03-2ED4-49F1-80F4-E4B6C4F2F9B5}" name="Tabla6" displayName="Tabla6" ref="A17:G33" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B701CC03-2ED4-49F1-80F4-E4B6C4F2F9B5}" name="Tabla6" displayName="Tabla6" ref="A17:G33" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A17:G33" xr:uid="{B701CC03-2ED4-49F1-80F4-E4B6C4F2F9B5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B4D13356-1665-4148-BA59-EFCDF905EA0A}" name="bin" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{62E20E5C-EA4D-47C7-8339-24867B08F83E}" name="red" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{6554A3C4-BD4D-4388-9CE9-FA0C047F8E97}" name="ip ini" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0B83E2FB-C20A-4B00-8878-768B8ED124AB}" name="ip fin" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{EDE68592-2A79-4493-B0A6-E88CAC931362}" name="broadcast" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{E364DCBB-8712-4335-B2B6-2E576EABC16D}" name="mask" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{5DE67145-7699-48CD-893C-008AA2743E38}" name="cidr" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{B4D13356-1665-4148-BA59-EFCDF905EA0A}" name="bin" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{62E20E5C-EA4D-47C7-8339-24867B08F83E}" name="red" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{6554A3C4-BD4D-4388-9CE9-FA0C047F8E97}" name="ip ini" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{0B83E2FB-C20A-4B00-8878-768B8ED124AB}" name="ip fin" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{EDE68592-2A79-4493-B0A6-E88CAC931362}" name="broadcast" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E364DCBB-8712-4335-B2B6-2E576EABC16D}" name="mask" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{5DE67145-7699-48CD-893C-008AA2743E38}" name="cidr" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2851,16 +2927,16 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{600F3518-7E06-4C65-9EA2-7EAC7D50C714}" name="Tabla29" displayName="Tabla29" ref="D13:J19" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{600F3518-7E06-4C65-9EA2-7EAC7D50C714}" name="Tabla29" displayName="Tabla29" ref="D13:J19" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="D13:J19" xr:uid="{600F3518-7E06-4C65-9EA2-7EAC7D50C714}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{383CEE3F-7826-4101-ADDC-1AA6088889AD}" name="dto" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{96E98BB3-4AD5-47FE-959E-A62DF8AED0D5}" name="net" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{57F6E8FE-6CA7-43A2-8636-97872821EB16}" name="bits" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D54BD92E-0CB1-41BB-919E-B945D3D09A90}" name="cidr" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{09EC5A5B-7F7D-4B88-8E9A-D1501968D3E6}" name="mask" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{560720C7-56C1-4C2A-BC75-3E3041D383A9}" name="hosts" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A8AD0A5C-1451-4C50-AB4B-16C243830349}" name="broadcast" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{383CEE3F-7826-4101-ADDC-1AA6088889AD}" name="dto" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{96E98BB3-4AD5-47FE-959E-A62DF8AED0D5}" name="net" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{57F6E8FE-6CA7-43A2-8636-97872821EB16}" name="bits" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D54BD92E-0CB1-41BB-919E-B945D3D09A90}" name="cidr" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{09EC5A5B-7F7D-4B88-8E9A-D1501968D3E6}" name="mask" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{560720C7-56C1-4C2A-BC75-3E3041D383A9}" name="hosts" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A8AD0A5C-1451-4C50-AB4B-16C243830349}" name="broadcast" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3163,30 +3239,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E63A0D6-6FEE-4EB6-BBF7-C195C4E9E08E}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3308,18 +3392,18 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3441,18 +3525,18 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3568,6 +3652,235 @@
       </c>
       <c r="I17" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="36">
+        <v>24</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="36">
+        <v>25</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" s="36">
+        <v>26</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="36">
+        <v>27</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="36">
+        <v>28</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="36">
+        <v>29</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25">
+        <v>29</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="36">
+        <v>30</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="34"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3579,6 +3892,7 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F13:I13"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3600,13 +3914,13 @@
     <col min="4" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3628,19 +3942,19 @@
       <c r="F1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="21" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3663,73 +3977,73 @@
       <c r="F2" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="22">
         <v>10255255255</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="21">
         <v>8</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="21">
         <v>1</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="23">
         <f>2^24-2</f>
         <v>16777214</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <v>16</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="21">
         <v>16</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="23">
         <f>2^16-2</f>
         <v>65534</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="22">
         <v>192168255255</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="21">
         <v>24</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="21">
         <v>256</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="23">
         <f>2^8-2</f>
         <v>254</v>
       </c>
@@ -3775,7 +4089,7 @@
         <f>2^22-2</f>
         <v>4194302</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4405,7 +4719,7 @@
       <c r="E39" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="25">
         <v>255255255224</v>
       </c>
       <c r="G39" s="15">
@@ -4416,19 +4730,19 @@
       <c r="A40" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="25">
         <v>255255255224</v>
       </c>
       <c r="G40" s="15">
@@ -4445,13 +4759,13 @@
       <c r="C41" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="25">
         <v>255255255224</v>
       </c>
       <c r="G41" s="15">
@@ -4462,19 +4776,19 @@
       <c r="A42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="27">
+      <c r="F42" s="25">
         <v>255255255224</v>
       </c>
       <c r="G42" s="15">
@@ -4491,13 +4805,13 @@
       <c r="C43" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="25">
         <v>255255255224</v>
       </c>
       <c r="G43" s="15">
@@ -4508,19 +4822,19 @@
       <c r="A44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="25">
         <v>255255255224</v>
       </c>
       <c r="G44" s="15">
@@ -4537,13 +4851,13 @@
       <c r="C45" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="25">
         <v>255255255224</v>
       </c>
       <c r="G45" s="15">
@@ -4554,19 +4868,19 @@
       <c r="A46" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E46" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F46" s="25">
         <v>255255255224</v>
       </c>
       <c r="G46" s="15">
@@ -4619,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBC4265-7131-43B4-8592-72164FAB352C}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4842,7 +5156,7 @@
       <c r="L7" t="s">
         <v>200</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="N7">
@@ -4857,7 +5171,7 @@
       <c r="Q7">
         <v>62</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="27" t="s">
         <v>212</v>
       </c>
       <c r="T7" t="s">
@@ -4872,7 +5186,7 @@
       <c r="W7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="28" t="s">
         <v>220</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -4910,7 +5224,7 @@
       <c r="L8" t="s">
         <v>199</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="27" t="s">
         <v>14</v>
       </c>
       <c r="N8">
@@ -4925,7 +5239,7 @@
       <c r="Q8">
         <v>126</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="27" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5038,167 +5352,167 @@
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="21">
         <v>6</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>6</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="21">
         <v>26</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="22">
         <v>255255255192</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="21">
         <v>62</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="21" t="s">
         <v>227</v>
       </c>
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>16</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>5</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>27</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <v>255255255224</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>30</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="21" t="s">
         <v>228</v>
       </c>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="21">
         <v>27</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="21">
         <v>27</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>255255255224</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="21">
         <v>30</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="21" t="s">
         <v>231</v>
       </c>
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="21">
         <v>58</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>4</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="21">
         <v>28</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="22">
         <v>255255255240</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>14</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="21" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="21">
         <v>2</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="21">
         <v>30</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="22">
         <v>255255255252</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="21">
         <v>2</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:B9" xr:uid="{BFBC4265-7131-43B4-8592-72164FAB352C}">

--- a/docs/subnetting.xlsx
+++ b/docs/subnetting.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-lj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507BB2F5-399B-4139-BC9A-220FB88B7540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A6CA16-8FC2-4F50-859C-F2570522D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="IPv4" sheetId="1" r:id="rId1"/>
     <sheet name="Classic" sheetId="2" r:id="rId2"/>
     <sheet name="VLSM" sheetId="3" r:id="rId3"/>
+    <sheet name="IPv6" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="318">
   <si>
     <t>10.32.64.128</t>
   </si>
@@ -1439,13 +1440,407 @@
   </si>
   <si>
     <t>10.0.1.52</t>
+  </si>
+  <si>
+    <t>publico</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>128.0.0.0</t>
+  </si>
+  <si>
+    <t>01111111</t>
+  </si>
+  <si>
+    <t>192.0.0.0</t>
+  </si>
+  <si>
+    <t>privado</t>
+  </si>
+  <si>
+    <t>10111111</t>
+  </si>
+  <si>
+    <t>11011111</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>240.0.0.0</t>
+  </si>
+  <si>
+    <t>11110000</t>
+  </si>
+  <si>
+    <t>172.16.0.0</t>
+  </si>
+  <si>
+    <t>172.31.255.255</t>
+  </si>
+  <si>
+    <t>multicast</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>IPv4</t>
+  </si>
+  <si>
+    <t>32 bits</t>
+  </si>
+  <si>
+    <t>Ipv6</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>:0DB6</t>
+  </si>
+  <si>
+    <t>:ACAD</t>
+  </si>
+  <si>
+    <t>:0001</t>
+  </si>
+  <si>
+    <t>:0000</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>/64</t>
+  </si>
+  <si>
+    <t>Interface ID</t>
+  </si>
+  <si>
+    <t>SN ID</t>
+  </si>
+  <si>
+    <t>Global Address</t>
+  </si>
+  <si>
+    <t>:DB6</t>
+  </si>
+  <si>
+    <t>:1</t>
+  </si>
+  <si>
+    <t>:0</t>
+  </si>
+  <si>
+    <t>left 0</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>link-local</t>
+  </si>
+  <si>
+    <t>unique-local</t>
+  </si>
+  <si>
+    <t>aplicación</t>
+  </si>
+  <si>
+    <t>2000::</t>
+  </si>
+  <si>
+    <t>3FFF::</t>
+  </si>
+  <si>
+    <t>WAN Routing</t>
+  </si>
+  <si>
+    <t>equivalencia IPv4</t>
+  </si>
+  <si>
+    <t>FE80::</t>
+  </si>
+  <si>
+    <t>FC00::</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.1110.10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00.0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>LAN Switching</t>
+  </si>
+  <si>
+    <t>Protocolo APIPA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>LAN Routing</t>
+  </si>
+  <si>
+    <t>Direccion Privada</t>
+  </si>
+  <si>
+    <t>Direccion Publica</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>FF00::</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1111.1111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.0000.0000</t>
+    </r>
+  </si>
+  <si>
+    <t>EUI-64</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>3CA9</t>
+  </si>
+  <si>
+    <t>C092</t>
+  </si>
+  <si>
+    <t>16 bits</t>
+  </si>
+  <si>
+    <r>
+      <t>3c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a9</t>
+    </r>
+  </si>
+  <si>
+    <t>7° bit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>07:EC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FF:FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A9:C092</t>
+    </r>
+  </si>
+  <si>
+    <t>if-ID</t>
+  </si>
+  <si>
+    <t>A4-4E-31-B5-81-30</t>
+  </si>
+  <si>
+    <t>A44E</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>31FF</t>
+  </si>
+  <si>
+    <t>FEB5</t>
+  </si>
+  <si>
+    <t>A64E</t>
+  </si>
+  <si>
+    <t>if_id</t>
+  </si>
+  <si>
+    <t>NIC MAC-ADDRESS</t>
+  </si>
+  <si>
+    <t>7 bit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,8 +1875,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1500,8 +1923,20 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1544,11 +1979,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1597,8 +2130,124 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -2061,420 +2710,571 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A06CDD5-247E-4F2E-B9BE-EFE905346005}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="29">
         <v>10255255255</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="35">
+        <v>127255255255</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="35">
+        <v>10255255255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10255255255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="D36" s="44">
+        <v>191255255255</v>
+      </c>
+      <c r="E36" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="35">
+        <v>223255255255</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="35">
+        <v>192168255255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="43" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B32">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="G32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" t="s">
-        <v>220</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="G33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34">
-        <v>28</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35">
-        <v>29</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36">
-        <v>30</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="G36" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" t="s">
-        <v>228</v>
-      </c>
+      <c r="D38" s="44">
+        <v>239255255255</v>
+      </c>
+      <c r="E38" s="46">
+        <v>11101111</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="35">
+        <v>255255255255</v>
+      </c>
+      <c r="E39" s="47">
+        <v>11111111</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="40"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="52">
+        <f>2^32</f>
+        <v>4294967296</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="52"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B40:E40"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,13 +3344,13 @@
       <c r="A4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -2799,13 +3599,13 @@
       <c r="A19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -2952,13 +3752,13 @@
       <c r="A29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -3364,7 +4164,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,4 +4496,390 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0B48D4-259E-4DDB-9310-DED0114D33A4}">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>281</v>
+      </c>
+      <c r="R1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="M2" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" s="31"/>
+      <c r="O3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4" s="31"/>
+      <c r="O4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>293</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="54"/>
+      <c r="L5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>296</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="10">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="10">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="10">
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="10">
+        <v>8130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/subnetting.xlsx
+++ b/docs/subnetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\redes\saves\ccna1-lj20\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A6CA16-8FC2-4F50-859C-F2570522D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6187BDD2-65B8-4A63-9D09-9287E2FA270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15300" windowHeight="7875" activeTab="3" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{D852F13A-B75E-4485-827D-087DF2F53A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="IPv4" sheetId="1" r:id="rId1"/>
@@ -1838,7 +1838,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2081,7 +2081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2136,9 +2136,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2158,15 +2155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2190,6 +2178,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2202,47 +2221,35 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3107,162 +3114,162 @@
       <c r="A33" t="s">
         <v>255</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="58"/>
+      <c r="F34" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="34">
         <v>127255255255</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="34">
         <v>10255255255</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="44">
+      <c r="D36" s="40">
         <v>191255255255</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="36" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="34">
         <v>223255255255</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="34">
         <v>192168255255</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="44">
+      <c r="D38" s="40">
         <v>239255255255</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="42">
         <v>11101111</v>
       </c>
-      <c r="F38" s="39" t="s">
+      <c r="F38" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="G38" s="39"/>
+      <c r="G38" s="54"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="34">
         <v>255255255255</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="43">
         <v>11111111</v>
       </c>
-      <c r="F39" s="40" t="s">
+      <c r="F39" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="G39" s="40"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="52">
+      <c r="B40" s="51">
         <f>2^32</f>
         <v>4294967296</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3344,13 +3351,13 @@
       <c r="A4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -3599,13 +3606,13 @@
       <c r="A19" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -3752,13 +3759,13 @@
       <c r="A29" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -4502,8 +4509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0B48D4-259E-4DDB-9310-DED0114D33A4}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,222 +4532,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="62" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="9" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="9">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="28" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="N3" s="31"/>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="9">
         <v>10</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="28" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="62" t="s">
         <v>280</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="1" t="s">
+      <c r="N4" s="60"/>
+      <c r="O4" s="62" t="s">
         <v>292</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="9">
         <v>7</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="28" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="54"/>
-      <c r="L5" s="1" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="45"/>
+      <c r="L5" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="N5" s="31"/>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="60"/>
+      <c r="O5" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="R5" s="26" t="s">
+      <c r="R5" s="28" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4748,13 +4756,17 @@
       <c r="A7" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="26"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -4763,14 +4775,18 @@
       <c r="B8" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="23" t="s">
         <v>302</v>
       </c>
       <c r="F8" s="26"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -4794,24 +4810,24 @@
       <c r="A10" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="53"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -4840,7 +4856,7 @@
       <c r="C14" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E14" s="10">
@@ -4857,7 +4873,7 @@
       <c r="C15" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="49" t="s">
         <v>313</v>
       </c>
       <c r="E15" s="10">
